--- a/resultados_sarima.xlsx
+++ b/resultados_sarima.xlsx
@@ -441,59 +441,59 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4721.719492379803</v>
+        <v>-394.1409247269175</v>
       </c>
       <c r="H2">
-        <v>4749.430146820008</v>
+        <v>-376.3183226903041</v>
       </c>
       <c r="I2">
-        <v>-2352.859746189902</v>
+        <v>202.0704623634588</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4722.408830646018</v>
+        <v>-391.1712657710203</v>
       </c>
       <c r="H3">
-        <v>4743.191821476172</v>
+        <v>-369.7841433270842</v>
       </c>
       <c r="I3">
-        <v>-2355.204415323009</v>
+        <v>201.5856328855102</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -505,24 +505,24 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4722.788450333748</v>
+        <v>-390.1169999016652</v>
       </c>
       <c r="H4">
-        <v>4747.035272968928</v>
+        <v>-365.1922284845565</v>
       </c>
       <c r="I4">
-        <v>-2354.394225166874</v>
+        <v>202.0584999508326</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -531,51 +531,51 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4722.96766171888</v>
+        <v>-389.4586873041829</v>
       </c>
       <c r="H5">
-        <v>4754.14214796411</v>
+        <v>-368.0945975180898</v>
       </c>
       <c r="I5">
-        <v>-2352.48383085944</v>
+        <v>200.7293436520915</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>4723.793010688734</v>
+        <v>-388.6462677492123</v>
       </c>
       <c r="H6">
-        <v>4748.039833323914</v>
+        <v>-363.7214963321036</v>
       </c>
       <c r="I6">
-        <v>-2354.896505344367</v>
+        <v>201.3231338746062</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -589,85 +589,85 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>4723.793010914194</v>
+        <v>-388.2168399758875</v>
       </c>
       <c r="H7">
-        <v>4751.503665354399</v>
+        <v>-359.7313869277633</v>
       </c>
       <c r="I7">
-        <v>-2353.896505457097</v>
+        <v>202.1084199879437</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>4724.186309811465</v>
+        <v>-375.1555158005812</v>
       </c>
       <c r="H8">
-        <v>4751.896964251669</v>
+        <v>-354.0267502934077</v>
       </c>
       <c r="I8">
-        <v>-2354.093154905732</v>
+        <v>193.5777579002906</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>4724.770774365516</v>
+        <v>-373.5445871855003</v>
       </c>
       <c r="H9">
-        <v>4759.409092415772</v>
+        <v>-355.937282596189</v>
       </c>
       <c r="I9">
-        <v>-2352.385387182758</v>
+        <v>191.7722935927501</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -679,53 +679,53 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4725.335628415013</v>
+        <v>-373.1759140930967</v>
       </c>
       <c r="H10">
-        <v>4756.510114660244</v>
+        <v>-348.525687668061</v>
       </c>
       <c r="I10">
-        <v>-2353.667814207507</v>
+        <v>193.5879570465484</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11">
-        <v>4725.469370148408</v>
+        <v>-372.3920769454986</v>
       </c>
       <c r="H11">
-        <v>4753.180024588613</v>
+        <v>-351.2873595667104</v>
       </c>
       <c r="I11">
-        <v>-2354.734685074204</v>
+        <v>192.1960384727493</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -734,27 +734,27 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>4725.849806742089</v>
+        <v>-372.010244736247</v>
       </c>
       <c r="H12">
-        <v>4757.024292987319</v>
+        <v>-350.8814792290735</v>
       </c>
       <c r="I12">
-        <v>-2353.924903371044</v>
+        <v>192.0051223681235</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -766,24 +766,24 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>4732.212480669821</v>
+        <v>-371.5693144434806</v>
       </c>
       <c r="H13">
-        <v>4756.459303305001</v>
+        <v>-346.9471441682276</v>
       </c>
       <c r="I13">
-        <v>-2359.106240334911</v>
+        <v>192.7846572217403</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -795,48 +795,48 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>4733.242705881576</v>
+        <v>-371.3443688347575</v>
       </c>
       <c r="H14">
-        <v>4764.417192126806</v>
+        <v>-346.7221985595046</v>
       </c>
       <c r="I14">
-        <v>-2357.621352940788</v>
+        <v>192.6721844173788</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4733.711837102695</v>
+        <v>-371.0168195452591</v>
       </c>
       <c r="H15">
-        <v>4761.422491542899</v>
+        <v>-342.8771963735414</v>
       </c>
       <c r="I15">
-        <v>-2358.855918551347</v>
+        <v>193.5084097726295</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -847,25 +847,25 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>4741.374273368554</v>
+        <v>-370.5359677617575</v>
       </c>
       <c r="H16">
-        <v>4765.6506943565</v>
+        <v>-345.9137974865046</v>
       </c>
       <c r="I16">
-        <v>-2363.687136684277</v>
+        <v>192.2679838808787</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -882,24 +882,24 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>4742.93778289651</v>
+        <v>-369.9471354048524</v>
       </c>
       <c r="H17">
-        <v>4770.68226402559</v>
+        <v>-345.3249651295994</v>
       </c>
       <c r="I17">
-        <v>-2363.468891448255</v>
+        <v>191.9735677024262</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -908,22 +908,22 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>4750.634415498208</v>
+        <v>-369.7854891360712</v>
       </c>
       <c r="H18">
-        <v>4771.442776345019</v>
+        <v>-341.6458659643536</v>
       </c>
       <c r="I18">
-        <v>-2369.317207749104</v>
+        <v>192.8927445680356</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -940,19 +940,19 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>4751.393142130615</v>
+        <v>-369.5099053492871</v>
       </c>
       <c r="H19">
-        <v>4779.137623259696</v>
+        <v>-348.4051879704989</v>
       </c>
       <c r="I19">
-        <v>-2367.696571065308</v>
+        <v>190.7549526746436</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -969,48 +969,48 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>4752.128304109835</v>
+        <v>-369.2612526609554</v>
       </c>
       <c r="H20">
-        <v>4776.404725097781</v>
+        <v>-341.1216294892378</v>
       </c>
       <c r="I20">
-        <v>-2369.064152054917</v>
+        <v>192.6306263304777</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21">
-        <v>4752.592692199003</v>
+        <v>-368.6143115257046</v>
       </c>
       <c r="H21">
-        <v>4773.401053045814</v>
+        <v>-344.0203103025497</v>
       </c>
       <c r="I21">
-        <v>-2370.296346099502</v>
+        <v>191.3071557628523</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1021,30 +1021,30 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22">
-        <v>4752.697114435897</v>
+        <v>-368.6108153054491</v>
       </c>
       <c r="H22">
-        <v>4776.973535423843</v>
+        <v>-340.5033853361293</v>
       </c>
       <c r="I22">
-        <v>-2369.348557217948</v>
+        <v>192.3054076527246</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1056,19 +1056,19 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>4753.47118261529</v>
+        <v>-368.1917664994446</v>
       </c>
       <c r="H23">
-        <v>4777.747603603236</v>
+        <v>-340.0843365301247</v>
       </c>
       <c r="I23">
-        <v>-2369.735591307645</v>
+        <v>192.0958832497223</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1079,83 +1079,83 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>4753.491840161232</v>
+        <v>-367.54492585541</v>
       </c>
       <c r="H24">
-        <v>4777.768261149178</v>
+        <v>-335.9240671399252</v>
       </c>
       <c r="I24">
-        <v>-2369.745920080616</v>
+        <v>192.772462927705</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
       <c r="G25">
-        <v>4753.564563988116</v>
+        <v>-367.2461801383729</v>
       </c>
       <c r="H25">
-        <v>4781.309045117197</v>
+        <v>-335.6253214228881</v>
       </c>
       <c r="I25">
-        <v>-2368.782281994058</v>
+        <v>192.6230900691864</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26">
-        <v>4754.824946376288</v>
+        <v>-367.0481947258244</v>
       </c>
       <c r="H26">
-        <v>4772.165247081964</v>
+        <v>-335.4273360103396</v>
       </c>
       <c r="I26">
-        <v>-2372.412473188144</v>
+        <v>192.5240973629122</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1166,59 +1166,59 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
       <c r="G27">
-        <v>4754.929726719345</v>
+        <v>-367.002822107934</v>
       </c>
       <c r="H27">
-        <v>4775.738087566156</v>
+        <v>-338.8953921386141</v>
       </c>
       <c r="I27">
-        <v>-2371.464863359673</v>
+        <v>191.501411053967</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>4759.258343916908</v>
+        <v>-366.4673425383723</v>
       </c>
       <c r="H28">
-        <v>4780.091967958937</v>
+        <v>-341.8733413152175</v>
       </c>
       <c r="I28">
-        <v>-2373.629171958454</v>
+        <v>190.2336712691862</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1230,24 +1230,24 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>4760.839029781579</v>
+        <v>-366.4634010503745</v>
       </c>
       <c r="H29">
-        <v>4785.144924497279</v>
+        <v>-338.3559710810546</v>
       </c>
       <c r="I29">
-        <v>-2373.419514890789</v>
+        <v>191.2317005251873</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1259,48 +1259,48 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>4772.232349901202</v>
+        <v>-366.3914478047693</v>
       </c>
       <c r="H30">
-        <v>4789.593703269559</v>
+        <v>-334.7705890892844</v>
       </c>
       <c r="I30">
-        <v>-2381.116174950601</v>
+        <v>192.1957239023846</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>4773.748989948737</v>
+        <v>-365.720777928954</v>
       </c>
       <c r="H31">
-        <v>4794.582613990766</v>
+        <v>-330.5864904673041</v>
       </c>
       <c r="I31">
-        <v>-2380.874494974369</v>
+        <v>192.860388964477</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1311,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1320,27 +1320,27 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>4952.170859420879</v>
+        <v>-357.2663430492435</v>
       </c>
       <c r="H32">
-        <v>4973.251431897869</v>
+        <v>-343.1804993777945</v>
       </c>
       <c r="I32">
-        <v>-2470.08542971044</v>
+        <v>182.6331715246217</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1349,21 +1349,21 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>4953.390103854255</v>
+        <v>-356.0655528360717</v>
       </c>
       <c r="H33">
-        <v>4977.98410507741</v>
+        <v>-338.4782883537482</v>
       </c>
       <c r="I33">
-        <v>-2469.695051927128</v>
+        <v>183.0327764180358</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1378,21 +1378,21 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>4953.448806305943</v>
+        <v>-355.3199649567599</v>
       </c>
       <c r="H34">
-        <v>4978.042807529098</v>
+        <v>-337.7126603674487</v>
       </c>
       <c r="I34">
-        <v>-2469.724403152972</v>
+        <v>182.65998247838</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1407,21 +1407,21 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>4955.063010098443</v>
+        <v>-355.1386895021493</v>
       </c>
       <c r="H35">
-        <v>4983.170440067763</v>
+        <v>-334.0339721233611</v>
       </c>
       <c r="I35">
-        <v>-2469.531505049221</v>
+        <v>183.5693447510747</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1430,22 +1430,22 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>4955.590049122557</v>
+        <v>-354.4195180349841</v>
       </c>
       <c r="H36">
-        <v>4973.157192853381</v>
+        <v>-333.0323955910479</v>
       </c>
       <c r="I36">
-        <v>-2472.795024561278</v>
+        <v>183.209759017492</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1456,10 +1456,10 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1468,47 +1468,47 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4956.792310865118</v>
+        <v>-354.1891575728712</v>
       </c>
       <c r="H37">
-        <v>4977.872883342107</v>
+        <v>-333.084440194083</v>
       </c>
       <c r="I37">
-        <v>-2472.396155432559</v>
+        <v>183.0945787864356</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>4958.417720980136</v>
+        <v>-354.1244642966225</v>
       </c>
       <c r="H38">
-        <v>4983.01172220329</v>
+        <v>-336.537199814299</v>
       </c>
       <c r="I38">
-        <v>-2472.208860490068</v>
+        <v>182.0622321483112</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1520,59 +1520,59 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>4962.569669356034</v>
+        <v>-353.9787319923471</v>
       </c>
       <c r="H39">
-        <v>4983.650241833024</v>
+        <v>-339.7053539773027</v>
       </c>
       <c r="I39">
-        <v>-2475.284834678017</v>
+        <v>180.9893659961735</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>4963.91267023828</v>
+        <v>-353.729446207769</v>
       </c>
       <c r="H40">
-        <v>4992.0201002076</v>
+        <v>-339.6596346219102</v>
       </c>
       <c r="I40">
-        <v>-2473.95633511914</v>
+        <v>180.8647231038845</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1584,18 +1584,18 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>4964.37197919406</v>
+        <v>-353.3404682652017</v>
       </c>
       <c r="H41">
-        <v>4988.965980417215</v>
+        <v>-328.7464670420468</v>
       </c>
       <c r="I41">
-        <v>-2475.18598959703</v>
+        <v>183.6702341326008</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1604,27 +1604,27 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>4965.902962961615</v>
+        <v>-352.8380052765979</v>
       </c>
       <c r="H42">
-        <v>4997.5238216771</v>
+        <v>-334.9962827577924</v>
       </c>
       <c r="I42">
-        <v>-2473.951481480808</v>
+        <v>181.4190026382989</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1636,24 +1636,24 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>4965.907295931835</v>
+        <v>-352.3475959661531</v>
       </c>
       <c r="H43">
-        <v>4994.014725901155</v>
+        <v>-324.2401659968332</v>
       </c>
       <c r="I43">
-        <v>-2474.953647965917</v>
+        <v>184.1737979830766</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1665,24 +1665,24 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>4965.940213336091</v>
+        <v>-352.3412518988933</v>
       </c>
       <c r="H44">
-        <v>4997.561072051576</v>
+        <v>-331.2606794219034</v>
       </c>
       <c r="I44">
-        <v>-2473.970106668045</v>
+        <v>182.1706259494467</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1691,22 +1691,22 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>4966.859264622746</v>
+        <v>-351.9817969681757</v>
       </c>
       <c r="H45">
-        <v>4998.480123338231</v>
+        <v>-327.3877957450209</v>
       </c>
       <c r="I45">
-        <v>-2474.429632311373</v>
+        <v>182.9908984840879</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1717,88 +1717,88 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>4966.870582415744</v>
+        <v>-351.7884105440188</v>
       </c>
       <c r="H46">
-        <v>5002.004869877394</v>
+        <v>-327.1944093208639</v>
       </c>
       <c r="I46">
-        <v>-2473.435291207872</v>
+        <v>182.8942052720094</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>4968.435327768868</v>
+        <v>-351.7629048538417</v>
       </c>
       <c r="H47">
-        <v>4993.029328992023</v>
+        <v>-330.6823323768518</v>
       </c>
       <c r="I47">
-        <v>-2477.217663884434</v>
+        <v>181.8814524269209</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>4969.404784453555</v>
+        <v>-351.7234830218014</v>
       </c>
       <c r="H48">
-        <v>4997.512214422875</v>
+        <v>-334.1362185394779</v>
       </c>
       <c r="I48">
-        <v>-2476.702392226778</v>
+        <v>180.8617415109007</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1816,18 +1816,18 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>4970.95513332362</v>
+        <v>-351.3667162956557</v>
       </c>
       <c r="H49">
-        <v>4995.549134546775</v>
+        <v>-333.5441142590422</v>
       </c>
       <c r="I49">
-        <v>-2478.47756666181</v>
+        <v>180.6833581478278</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1839,19 +1839,19 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>4970.972950762187</v>
+        <v>-350.5560520279855</v>
       </c>
       <c r="H50">
-        <v>4992.077668140975</v>
+        <v>-325.6312806108768</v>
       </c>
       <c r="I50">
-        <v>-2479.486475381093</v>
+        <v>182.2780260139928</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1865,56 +1865,56 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51">
-        <v>4972.915050351707</v>
+        <v>-350.5078556505387</v>
       </c>
       <c r="H51">
-        <v>5001.022480321027</v>
+        <v>-329.4031382717504</v>
       </c>
       <c r="I51">
-        <v>-2478.457525175853</v>
+        <v>181.2539278252693</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>4973.767726826081</v>
+        <v>-350.3775279382982</v>
       </c>
       <c r="H52">
-        <v>5005.388585541566</v>
+        <v>-329.2969554613082</v>
       </c>
       <c r="I52">
-        <v>-2477.883863413041</v>
+        <v>181.1887639691491</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1926,24 +1926,24 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>4976.300989754243</v>
+        <v>-349.3621557960291</v>
       </c>
       <c r="H53">
-        <v>5004.408419723563</v>
+        <v>-331.7950120652042</v>
       </c>
       <c r="I53">
-        <v>-2480.150494877122</v>
+        <v>179.6810778980146</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1955,53 +1955,53 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>4976.534058717361</v>
+        <v>-348.4994403853034</v>
       </c>
       <c r="H54">
-        <v>5001.128059940516</v>
+        <v>-323.9054391621486</v>
       </c>
       <c r="I54">
-        <v>-2481.267029358681</v>
+        <v>181.2497201926517</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>4978.877955075477</v>
+        <v>-347.3625355694522</v>
       </c>
       <c r="H55">
-        <v>4999.958527552467</v>
+        <v>-325.998445783359</v>
       </c>
       <c r="I55">
-        <v>-2483.438977537739</v>
+        <v>179.6812677847261</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2019,18 +2019,18 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>4981.190640578656</v>
+        <v>-331.6817401717238</v>
       </c>
       <c r="H56">
-        <v>4998.77790506098</v>
+        <v>-314.3203868033665</v>
       </c>
       <c r="I56">
-        <v>-2485.595320289328</v>
+        <v>170.8408700858619</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -2039,27 +2039,27 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57">
-        <v>4982.927127555113</v>
+        <v>-331.0418580348702</v>
       </c>
       <c r="H57">
-        <v>5004.031844933901</v>
+        <v>-313.7015573291945</v>
       </c>
       <c r="I57">
-        <v>-2485.463563777556</v>
+        <v>170.5209290174351</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -2071,48 +2071,48 @@
         <v>2</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>4983.327267440589</v>
+        <v>-329.7671966196529</v>
       </c>
       <c r="H58">
-        <v>5007.949437715842</v>
+        <v>-308.933572577624</v>
       </c>
       <c r="I58">
-        <v>-2484.663633720294</v>
+        <v>170.8835983098264</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>2</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59">
-        <v>4985.303995830083</v>
+        <v>-329.7235244748644</v>
       </c>
       <c r="H59">
-        <v>5013.443619001801</v>
+        <v>-308.8899004328355</v>
       </c>
       <c r="I59">
-        <v>-2484.651997915042</v>
+        <v>170.8617622374322</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2132,16 +2132,16 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60">
-        <v>4985.715200169838</v>
+        <v>-329.4186504411978</v>
       </c>
       <c r="H60">
-        <v>5003.302464652162</v>
+        <v>-308.610289594387</v>
       </c>
       <c r="I60">
-        <v>-2487.857600084919</v>
+        <v>170.7093252205989</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2161,79 +2161,79 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61">
-        <v>4986.540835978529</v>
+        <v>-329.2573918639323</v>
       </c>
       <c r="H61">
-        <v>5004.128100460853</v>
+        <v>-308.4490310171215</v>
       </c>
       <c r="I61">
-        <v>-2488.270417989264</v>
+        <v>170.6286959319661</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>4987.599869336624</v>
+        <v>-328.3943628172294</v>
       </c>
       <c r="H62">
-        <v>5008.704586715412</v>
+        <v>-304.1179418292835</v>
       </c>
       <c r="I62">
-        <v>-2487.799934668312</v>
+        <v>171.1971814086147</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G63">
-        <v>4989.105032658432</v>
+        <v>-328.280903959606</v>
       </c>
       <c r="H63">
-        <v>5006.712337247743</v>
+        <v>-304.00448297166</v>
       </c>
       <c r="I63">
-        <v>-2489.552516329216</v>
+        <v>171.140451979803</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -2242,51 +2242,51 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>4989.23537441623</v>
+        <v>-327.9305577921187</v>
       </c>
       <c r="H64">
-        <v>5003.305186002089</v>
+        <v>-307.122196945308</v>
       </c>
       <c r="I64">
-        <v>-2490.617687208115</v>
+        <v>169.9652788960594</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>4989.359237782061</v>
+        <v>-327.8053262241233</v>
       </c>
       <c r="H65">
-        <v>5010.46395516085</v>
+        <v>-303.499431508423</v>
       </c>
       <c r="I65">
-        <v>-2488.679618891031</v>
+        <v>170.9026631120616</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2300,22 +2300,22 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66">
-        <v>4991.339496334753</v>
+        <v>-327.641469702836</v>
       </c>
       <c r="H66">
-        <v>5015.961666610006</v>
+        <v>-303.3650487148901</v>
       </c>
       <c r="I66">
-        <v>-2488.669748167376</v>
+        <v>170.820734851418</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2326,30 +2326,30 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>2</v>
       </c>
       <c r="G67">
-        <v>4991.418732722086</v>
+        <v>-327.5103563302903</v>
       </c>
       <c r="H67">
-        <v>5016.040902997339</v>
+        <v>-303.263533695111</v>
       </c>
       <c r="I67">
-        <v>-2488.709366361043</v>
+        <v>170.7551781651451</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -2361,77 +2361,77 @@
         <v>2</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <v>2</v>
       </c>
       <c r="G68">
-        <v>4992.172815174124</v>
+        <v>-327.3014322182091</v>
       </c>
       <c r="H68">
-        <v>5020.312438345843</v>
+        <v>-303.0250112302632</v>
       </c>
       <c r="I68">
-        <v>-2488.086407587062</v>
+        <v>170.6507161091046</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
         <v>2</v>
       </c>
       <c r="G69">
-        <v>4992.437367793958</v>
+        <v>-326.8479209605634</v>
       </c>
       <c r="H69">
-        <v>5020.576990965676</v>
+        <v>-306.0649301304098</v>
       </c>
       <c r="I69">
-        <v>-2488.218683896979</v>
+        <v>169.4239604802817</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>5001.354107893834</v>
+        <v>-326.8218402673519</v>
       </c>
       <c r="H70">
-        <v>5022.458825272623</v>
+        <v>-309.0184321122742</v>
       </c>
       <c r="I70">
-        <v>-2494.677053946917</v>
+        <v>168.4109201336759</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2442,25 +2442,25 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>5001.436291182342</v>
+        <v>-326.5761789875178</v>
       </c>
       <c r="H71">
-        <v>5022.54100856113</v>
+        <v>-298.8316978584367</v>
       </c>
       <c r="I71">
-        <v>-2494.718145591171</v>
+        <v>171.2880894937589</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2474,27 +2474,27 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
         <v>2</v>
       </c>
       <c r="G72">
-        <v>5001.709399198151</v>
+        <v>-326.5751827272885</v>
       </c>
       <c r="H72">
-        <v>5026.331569473404</v>
+        <v>-298.8307015982074</v>
       </c>
       <c r="I72">
-        <v>-2493.854699599076</v>
+        <v>171.2875913636443</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -2506,30 +2506,30 @@
         <v>2</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>5002.127751006248</v>
+        <v>-326.014968721556</v>
       </c>
       <c r="H73">
-        <v>5026.749921281501</v>
+        <v>-301.7385477336101</v>
       </c>
       <c r="I73">
-        <v>-2494.063875503124</v>
+        <v>170.007484360778</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -2538,21 +2538,21 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G74">
-        <v>5003.435349928897</v>
+        <v>-325.7879029582704</v>
       </c>
       <c r="H74">
-        <v>5017.521193600346</v>
+        <v>-298.0772485180655</v>
       </c>
       <c r="I74">
-        <v>-2497.717674964449</v>
+        <v>170.8939514791352</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -2561,51 +2561,51 @@
         <v>2</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G75">
-        <v>5005.329806038813</v>
+        <v>-325.7584908016353</v>
       </c>
       <c r="H75">
-        <v>5026.458571545987</v>
+        <v>-298.0478363614304</v>
       </c>
       <c r="I75">
-        <v>-2496.664903019407</v>
+        <v>170.8792454008176</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76">
-        <v>5007.307859086404</v>
+        <v>-325.4039472865416</v>
       </c>
       <c r="H76">
-        <v>5031.95808551144</v>
+        <v>-297.6594661574605</v>
       </c>
       <c r="I76">
-        <v>-2496.653929543202</v>
+        <v>170.7019736432708</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2616,25 +2616,25 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>2</v>
       </c>
       <c r="G77">
-        <v>5009.875196716929</v>
+        <v>-325.2228918145007</v>
       </c>
       <c r="H77">
-        <v>5027.462461199253</v>
+        <v>-300.9760691793214</v>
       </c>
       <c r="I77">
-        <v>-2499.937598358465</v>
+        <v>169.6114459072503</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2648,51 +2648,51 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>5018.73232782384</v>
+        <v>-325.1176183998405</v>
       </c>
       <c r="H78">
-        <v>5036.339632413151</v>
+        <v>-314.4240571778724</v>
       </c>
       <c r="I78">
-        <v>-2504.36616391192</v>
+        <v>165.5588091999203</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>5020.719306434172</v>
+        <v>-325.1060238457352</v>
       </c>
       <c r="H79">
-        <v>5041.848071941346</v>
+        <v>-303.741934059642</v>
       </c>
       <c r="I79">
-        <v>-2504.359653217086</v>
+        <v>168.5530119228676</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2703,30 +2703,30 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>5202.768039052105</v>
+        <v>-324.8876446574751</v>
       </c>
       <c r="H80">
-        <v>5231.25349210023</v>
+        <v>-300.6408220222958</v>
       </c>
       <c r="I80">
-        <v>-2593.384019526053</v>
+        <v>169.4438223287376</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -2735,27 +2735,27 @@
         <v>2</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>5202.964185746703</v>
+        <v>-324.5832734888152</v>
       </c>
       <c r="H81">
-        <v>5227.888957163812</v>
+        <v>-296.8726190486103</v>
       </c>
       <c r="I81">
-        <v>-2594.482092873352</v>
+        <v>170.2916367444076</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -2767,77 +2767,77 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82">
-        <v>5205.868706422187</v>
+        <v>-324.1924535190337</v>
       </c>
       <c r="H82">
-        <v>5227.23279620828</v>
+        <v>-293.0179672738033</v>
       </c>
       <c r="I82">
-        <v>-2596.934353211093</v>
+        <v>171.0962267595169</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83">
-        <v>5211.039935677594</v>
+        <v>-324.043301733086</v>
       </c>
       <c r="H83">
-        <v>5235.964707094703</v>
+        <v>-292.8688154878555</v>
       </c>
       <c r="I83">
-        <v>-2598.519967838797</v>
+        <v>171.021650866543</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>5216.670863063114</v>
+        <v>-323.4739993344934</v>
       </c>
       <c r="H84">
-        <v>5241.595634480223</v>
+        <v>-309.2159177052027</v>
       </c>
       <c r="I84">
-        <v>-2601.335431531557</v>
+        <v>165.7369996672467</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2851,22 +2851,22 @@
         <v>2</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G85">
-        <v>5225.078699910229</v>
+        <v>-323.332641413716</v>
       </c>
       <c r="H85">
-        <v>5239.321426434291</v>
+        <v>-295.6219869735111</v>
       </c>
       <c r="I85">
-        <v>-2608.539349955115</v>
+        <v>169.666320706858</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2880,27 +2880,27 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86">
-        <v>5225.206491753745</v>
+        <v>-323.0661224817898</v>
       </c>
       <c r="H86">
-        <v>5246.570581539838</v>
+        <v>-295.3554680415849</v>
       </c>
       <c r="I86">
-        <v>-2606.603245876872</v>
+        <v>169.5330612408949</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -2909,22 +2909,22 @@
         <v>2</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>5225.57895343666</v>
+        <v>-322.9033050864432</v>
       </c>
       <c r="H87">
-        <v>5243.382361591737</v>
+        <v>-291.7288188412127</v>
       </c>
       <c r="I87">
-        <v>-2607.78947671833</v>
+        <v>170.4516525432216</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2935,59 +2935,59 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G88">
-        <v>5227.554631230954</v>
+        <v>-322.6161695874685</v>
       </c>
       <c r="H88">
-        <v>5248.918721017048</v>
+        <v>-291.441683342238</v>
       </c>
       <c r="I88">
-        <v>-2607.777315615477</v>
+        <v>170.3080847937343</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89">
-        <v>5229.358589353659</v>
+        <v>-322.4970971850099</v>
       </c>
       <c r="H89">
-        <v>5250.745711797596</v>
+        <v>-287.8587791347538</v>
       </c>
       <c r="I89">
-        <v>-2608.67929467683</v>
+        <v>171.248548592505</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -2996,22 +2996,22 @@
         <v>2</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>5235.711636448654</v>
+        <v>-321.3936132641313</v>
       </c>
       <c r="H90">
-        <v>5257.09875889259</v>
+        <v>-307.1508867400692</v>
       </c>
       <c r="I90">
-        <v>-2611.855818224327</v>
+        <v>164.6968066320657</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>5239.273578055347</v>
+        <v>-320.132290298162</v>
       </c>
       <c r="H91">
-        <v>5257.076986210424</v>
+        <v>-302.3288821430843</v>
       </c>
       <c r="I91">
-        <v>-2614.636789027673</v>
+        <v>165.066145149081</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3054,22 +3054,22 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92">
-        <v>5239.959229839775</v>
+        <v>-282.0200167924289</v>
       </c>
       <c r="H92">
-        <v>5257.781831876388</v>
+        <v>-264.4327523101054</v>
       </c>
       <c r="I92">
-        <v>-2614.979614919887</v>
+        <v>146.0100083962145</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3083,22 +3083,22 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G93">
-        <v>5243.746628142259</v>
+        <v>-281.6070936699348</v>
       </c>
       <c r="H93">
-        <v>5261.569230178873</v>
+        <v>-260.5023762911466</v>
       </c>
       <c r="I93">
-        <v>-2616.87331407113</v>
+        <v>146.8035468349674</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94">
-        <v>5251.37500478582</v>
+        <v>-280.0889275287366</v>
       </c>
       <c r="H94">
-        <v>5276.299776202929</v>
+        <v>-255.4667572534836</v>
       </c>
       <c r="I94">
-        <v>-2618.68750239291</v>
+        <v>147.0444637643683</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3147,16 +3147,16 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95">
-        <v>5251.633895344679</v>
+        <v>-279.0329925114302</v>
       </c>
       <c r="H95">
-        <v>5272.997985130773</v>
+        <v>-254.4389912882753</v>
       </c>
       <c r="I95">
-        <v>-2619.81694767234</v>
+        <v>146.5164962557151</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3176,74 +3176,74 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96">
-        <v>5255.142402499368</v>
+        <v>-278.9352374967726</v>
       </c>
       <c r="H96">
-        <v>5272.945810654445</v>
+        <v>-257.8546650197827</v>
       </c>
       <c r="I96">
-        <v>-2622.571201249684</v>
+        <v>145.4676187483863</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G97">
-        <v>5258.162344454256</v>
+        <v>-277.0357369080654</v>
       </c>
       <c r="H97">
-        <v>5272.420426083547</v>
+        <v>-248.9283069387455</v>
       </c>
       <c r="I97">
-        <v>-2625.081172227128</v>
+        <v>146.5178684540327</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>5258.273860080299</v>
+        <v>-248.4087791044715</v>
       </c>
       <c r="H98">
-        <v>5276.115582599105</v>
+        <v>-230.586177067858</v>
       </c>
       <c r="I98">
-        <v>-2624.136930040149</v>
+        <v>129.2043895522357</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3260,24 +3260,24 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>5260.640554238187</v>
+        <v>-247.9084528272333</v>
       </c>
       <c r="H99">
-        <v>5271.334115460155</v>
+        <v>-233.6503711979425</v>
       </c>
       <c r="I99">
-        <v>-2627.320277119094</v>
+        <v>127.9542264136167</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -3286,33 +3286,33 @@
         <v>1</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>5273.022046434522</v>
+        <v>-247.0013560906276</v>
       </c>
       <c r="H100">
-        <v>5287.295424449567</v>
+        <v>-225.6142336466914</v>
       </c>
       <c r="I100">
-        <v>-2632.511023217261</v>
+        <v>129.5006780453138</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3324,24 +3324,24 @@
         <v>1</v>
       </c>
       <c r="G101">
-        <v>5278.74764212258</v>
+        <v>-246.5471942718571</v>
       </c>
       <c r="H101">
-        <v>5300.134764566516</v>
+        <v>-225.1831044857639</v>
       </c>
       <c r="I101">
-        <v>-2633.37382106129</v>
+        <v>129.2735971359285</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3353,24 +3353,24 @@
         <v>1</v>
       </c>
       <c r="G102">
-        <v>5279.565859955445</v>
+        <v>-245.4072915728132</v>
       </c>
       <c r="H102">
-        <v>5297.388461992059</v>
+        <v>-227.6038834177355</v>
       </c>
       <c r="I102">
-        <v>-2634.782929977723</v>
+        <v>127.7036457864066</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3382,18 +3382,18 @@
         <v>1</v>
       </c>
       <c r="G103">
-        <v>5285.488058085902</v>
+        <v>-244.5561453577182</v>
       </c>
       <c r="H103">
-        <v>5299.746139715193</v>
+        <v>-219.6313739406095</v>
       </c>
       <c r="I103">
-        <v>-2638.744029042951</v>
+        <v>129.2780726788591</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -3411,13 +3411,13 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>5526.948146997187</v>
+        <v>-211.6495038759379</v>
       </c>
       <c r="H104">
-        <v>5548.582959394963</v>
+        <v>-197.2262956107539</v>
       </c>
       <c r="I104">
-        <v>-2757.474073498593</v>
+        <v>109.824751937969</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3440,13 +3440,13 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>5529.880304855214</v>
+        <v>-173.9205171192076</v>
       </c>
       <c r="H105">
-        <v>5547.909315186695</v>
+        <v>-155.8915067877276</v>
       </c>
       <c r="I105">
-        <v>-2759.940152427607</v>
+        <v>91.9602585596038</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3457,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -3469,18 +3469,18 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>5533.615885344996</v>
+        <v>-173.559749839518</v>
       </c>
       <c r="H106">
-        <v>5548.03909361018</v>
+        <v>-162.7313344539632</v>
       </c>
       <c r="I106">
-        <v>-2762.807942672498</v>
+        <v>89.77987491975902</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -3498,24 +3498,24 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>5534.815893493873</v>
+        <v>-173.2751959559815</v>
       </c>
       <c r="H107">
-        <v>5552.844903825353</v>
+        <v>-158.8373087752417</v>
       </c>
       <c r="I107">
-        <v>-2762.407946746936</v>
+        <v>90.63759797799077</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -3527,18 +3527,18 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>5559.090538542743</v>
+        <v>-172.5543281302113</v>
       </c>
       <c r="H108">
-        <v>5573.528425723483</v>
+        <v>-150.9195157324353</v>
       </c>
       <c r="I108">
-        <v>-2775.545269271372</v>
+        <v>92.27716406510567</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>5560.812931108962</v>
+        <v>-172.3875321363509</v>
       </c>
       <c r="H109">
-        <v>5571.641346494517</v>
+        <v>-154.3585218048709</v>
       </c>
       <c r="I109">
-        <v>-2777.406465554481</v>
+        <v>91.19376606817544</v>
       </c>
     </row>
   </sheetData>
